--- a/NewBook.xlsx
+++ b/NewBook.xlsx
@@ -488,7 +488,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H2" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -866,7 +866,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H8" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -893,7 +893,7 @@
         <v/>
       </c>
       <c r="Q8" t="str">
-        <v>wheat</v>
+        <v/>
       </c>
       <c r="R8" t="str">
         <v/>
@@ -929,7 +929,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H9" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -956,7 +956,7 @@
         <v/>
       </c>
       <c r="Q9" t="str">
-        <v>lentils</v>
+        <v/>
       </c>
       <c r="R9" t="str">
         <v/>
@@ -992,7 +992,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H10" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I10" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1055,7 +1055,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H11" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1181,7 +1181,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H13" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I13" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1244,7 +1244,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H14" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I14" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1433,7 +1433,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H17" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I17" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1496,7 +1496,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H18" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1685,7 +1685,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H21" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I21" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1748,7 +1748,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H22" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1811,7 +1811,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H23" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I23" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -1874,7 +1874,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H24" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I24" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -2063,7 +2063,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H27" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I27" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -2126,7 +2126,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H28" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I28" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -2189,7 +2189,7 @@
         <v>ENBRIDGE PIPELINES INC</v>
       </c>
       <c r="H29" t="str">
-        <v>NE-24-19-19-W2</v>
+        <v/>
       </c>
       <c r="I29" t="str">
         <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
@@ -8682,7 +8682,7 @@
         <v/>
       </c>
       <c r="I132" t="str">
-        <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
+        <v/>
       </c>
       <c r="J132" t="str">
         <v>CELL: 1-(306)-581-8415</v>
@@ -8808,7 +8808,7 @@
         <v/>
       </c>
       <c r="I134" t="str">
-        <v>BOX 398 10201 JASPER AVENUE, EDMONTON, AB, T5J 2J9</v>
+        <v/>
       </c>
       <c r="J134" t="str">
         <v>CELL: 1-(306)-581-8415</v>
@@ -13971,7 +13971,7 @@
         <v>JACK SAMBROOK, ROSALIE MARIE SAMBROOK</v>
       </c>
       <c r="H216" t="str">
-        <v/>
+        <v>3711 WETMORE CRESCENT, REGINA, SK, S4V 2B7</v>
       </c>
       <c r="I216" t="str">
         <v>BOX 125, MILESTONE, SK, S0G 3L0</v>

--- a/NewBook.xlsx
+++ b/NewBook.xlsx
@@ -503,7 +503,7 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -881,7 +881,7 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -944,7 +944,7 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -1007,7 +1007,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -1070,7 +1070,7 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -1196,7 +1196,7 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N13" t="str">
         <v/>
@@ -1259,7 +1259,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N14" t="str">
         <v/>
@@ -1448,7 +1448,7 @@
         <v/>
       </c>
       <c r="M17" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -1511,7 +1511,7 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N18" t="str">
         <v/>
@@ -1700,7 +1700,7 @@
         <v/>
       </c>
       <c r="M21" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N21" t="str">
         <v/>
@@ -1763,7 +1763,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N22" t="str">
         <v/>
@@ -1826,7 +1826,7 @@
         <v/>
       </c>
       <c r="M23" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N23" t="str">
         <v/>
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N24" t="str">
         <v/>
@@ -2078,7 +2078,7 @@
         <v/>
       </c>
       <c r="M27" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -2141,7 +2141,7 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N28" t="str">
         <v/>
@@ -2204,7 +2204,7 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <v>YES</v>
+        <v>NO</v>
       </c>
       <c r="N29" t="str">
         <v/>

--- a/NewBook.xlsx
+++ b/NewBook.xlsx
@@ -503,7 +503,7 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -881,7 +881,7 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -944,7 +944,7 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -1007,7 +1007,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -1070,7 +1070,7 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -1196,7 +1196,7 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N13" t="str">
         <v/>
@@ -1259,7 +1259,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N14" t="str">
         <v/>
@@ -1448,7 +1448,7 @@
         <v/>
       </c>
       <c r="M17" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -1511,7 +1511,7 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N18" t="str">
         <v/>
@@ -1700,7 +1700,7 @@
         <v/>
       </c>
       <c r="M21" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N21" t="str">
         <v/>
@@ -1763,7 +1763,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N22" t="str">
         <v/>
@@ -1826,7 +1826,7 @@
         <v/>
       </c>
       <c r="M23" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N23" t="str">
         <v/>
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N24" t="str">
         <v/>
@@ -2078,7 +2078,7 @@
         <v/>
       </c>
       <c r="M27" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -2141,7 +2141,7 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N28" t="str">
         <v/>
@@ -2204,7 +2204,7 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <v>NO</v>
+        <v/>
       </c>
       <c r="N29" t="str">
         <v/>
@@ -2658,7 +2658,7 @@
         <v/>
       </c>
       <c r="Q36" t="str">
-        <v/>
+        <v>test</v>
       </c>
       <c r="R36" t="str">
         <v/>

--- a/NewBook.xlsx
+++ b/NewBook.xlsx
@@ -503,7 +503,7 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -881,7 +881,7 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -944,7 +944,7 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -1007,7 +1007,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -1070,7 +1070,7 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -1196,7 +1196,7 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N13" t="str">
         <v/>
@@ -1259,7 +1259,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N14" t="str">
         <v/>
@@ -1448,7 +1448,7 @@
         <v/>
       </c>
       <c r="M17" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -1511,7 +1511,7 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N18" t="str">
         <v/>
@@ -1700,7 +1700,7 @@
         <v/>
       </c>
       <c r="M21" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N21" t="str">
         <v/>
@@ -1763,7 +1763,7 @@
         <v/>
       </c>
       <c r="M22" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N22" t="str">
         <v/>
@@ -1826,7 +1826,7 @@
         <v/>
       </c>
       <c r="M23" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N23" t="str">
         <v/>
@@ -1889,7 +1889,7 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N24" t="str">
         <v/>
@@ -2078,7 +2078,7 @@
         <v/>
       </c>
       <c r="M27" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -2141,7 +2141,7 @@
         <v/>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N28" t="str">
         <v/>
@@ -2204,7 +2204,7 @@
         <v/>
       </c>
       <c r="M29" t="str">
-        <v/>
+        <v>YES</v>
       </c>
       <c r="N29" t="str">
         <v/>
@@ -2658,7 +2658,7 @@
         <v/>
       </c>
       <c r="Q36" t="str">
-        <v>test</v>
+        <v/>
       </c>
       <c r="R36" t="str">
         <v/>
@@ -2685,7 +2685,7 @@
         <v/>
       </c>
       <c r="E37" t="str">
-        <v>LAND RENTER</v>
+        <v>LAND OWNER</v>
       </c>
       <c r="F37" t="str">
         <v>GREEN</v>

--- a/NewBook.xlsx
+++ b/NewBook.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,101 +421,245 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" t="str">
-        <v>BRIAN CLARENCE REAUME, SHELLY LYNN REAUMEs</v>
+        <v>BRIAN CLARENCE REAUME, SHELLY LYNN REAUME Test</v>
       </c>
       <c r="C2" t="str">
         <v>Vijay</v>
       </c>
       <c r="D2" t="str">
-        <v>2022-29-9</v>
+        <v>2022-09-30</v>
       </c>
       <c r="E2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Name &gt;&gt; BRIAN CLARENCE REAUME, SHELLY LYNN REAUMEs &gt;&gt; BRIAN CLARENCE REAUME, SHELLY LYNN REAUME
+        <v xml:space="preserve">Name &gt;&gt; BRIAN CLARENCE REAUME, SHELLY LYNN REAUME Test &gt;&gt; BRIAN CLARENCE REAUME, SHELLY LYNN REAUME
 </v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3" t="str">
-        <v>RENEE MARIE EILEEN ROELS</v>
+        <v>HER MAJESTY THE QUEEN (ONTARIO)</v>
       </c>
       <c r="C3" t="str">
         <v>Vijay</v>
       </c>
       <c r="D3" t="str">
-        <v>2022-29-9</v>
+        <v>2022-09-30</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
-        <v xml:space="preserve">Name &gt;&gt; RENEE MARIE EILEEN ROELS &gt;&gt; RENEE MARIE EILEEN ROELS name
-Phone No &gt;&gt; CELL: 1-(519)-358-5806, WORK: 1-(519)-436-4600-EXT500 &gt;&gt; CELL: 1-(519)-358-5806, WORK: 1-(519)-436-4600-EXT500n new pho
+        <v xml:space="preserve">Contacted &gt;&gt; YES &gt;&gt; NO
+Corperation &gt;&gt;  &gt;&gt; YES
 </v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4" t="str">
-        <v>RALPH CYRIL AUGUST ROELS</v>
+        <v>ERMA MARGUERITE DERYNCK, ATTN: DAVID DERYNCK</v>
       </c>
       <c r="C4" t="str">
         <v>Vijay</v>
       </c>
       <c r="D4" t="str">
-        <v>2022-29-9</v>
+        <v>2022-09-30</v>
       </c>
       <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Street &gt;&gt; 4075 TECUMSEH LINE, TILBURY, ON, N0P 2L0 &gt;&gt; 4800 4th Ave
-Mailing &gt;&gt; 4075 TECUMSEH LINE, TILBURY, ON, N0P 2L0 &gt;&gt; 4800 4th Ave
-Phone No &gt;&gt; CELL: 1-(519)-358-3268 &gt;&gt; CELL: 1-(519)-358-3268, HOME: 1-(306)-545-9952
+        <v xml:space="preserve">Name &gt;&gt; ERMA MARGUERITE DERYNCK, ATTN: DAVID DERYNCK &gt;&gt; ERMA MARGUERITE DERYNCK, ATTN: DAVID AMAYA
+Phone No &gt;&gt; CELL: 1-(519)-360-6675 &gt;&gt; CELL: 1-(519)-360-6675, HOME: 1-(306)-545-9952
 Contacted &gt;&gt;  &gt;&gt; YES
 </v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" t="str">
-        <v>PUBLIC AUTHORITY HAVING JURISDICTION, ATTN: ALAN DEVILLAER, ATTN: THE CORPORATION OF THE MUNICIPALITY OF CHATHAM-KENT</v>
+        <v>HER MAJESTY THE QUEEN (ONTARIO)</v>
       </c>
       <c r="C5" t="str">
         <v>Vijay</v>
       </c>
       <c r="D5" t="str">
-        <v>2022-29-9</v>
+        <v>2022-10-1</v>
       </c>
       <c r="E5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Name &gt;&gt; PUBLIC AUTHORITY HAVING JURISDICTION, ATTN: ALAN DEVILLAER, ATTN: THE CORPORATION OF THE MUNICIPALITY OF CHATHAM-KENT &gt;&gt; PUBLIC AUTHORITY HAVING JURISDICTION, ATTN: ALAN DEVILLAER, ATTN: THE CORPORATION OF THE MUNICIPALITY OF CHATHAM-KENTpt
+        <v xml:space="preserve">Street &gt;&gt; 4800 4th ave &gt;&gt; 
+Contacted &gt;&gt; NO &gt;&gt; YES
 </v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6" t="str">
-        <v>HER MAJESTY THE QUEEN (ONTARIO) - TRANSPORTATION</v>
+        <v>DAVID DERYNCK</v>
       </c>
       <c r="C6" t="str">
         <v>Vijay</v>
       </c>
       <c r="D6" t="str">
-        <v>2022-29-9</v>
+        <v>2022-10-03</v>
       </c>
       <c r="E6" t="str" xml:space="preserve">
-        <v xml:space="preserve">Contact &gt;&gt; GREEN &gt;&gt; RED
+        <v xml:space="preserve">Phone No &gt;&gt; CELL: 1-(519)-360-6675 &gt;&gt; CELL: 1-(519)-360-6675, 24HR EMERGENCY: 1-(519)-352-1234
+</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" t="str">
+        <v>DENNIS DODGE, JENNY CARR</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2022-10-03</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone No &gt;&gt; HOME: 1-(519)-355-5235 &gt;&gt; HOME: 1-(519)-355-5235, 24HR EMERGENCY: 1-(519)-352-1234
+</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8" t="str">
+        <v>DAVID DERYNCK</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2022-10-03</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone No &gt;&gt; CELL: 1-(519)-360-6675, 24HR EMERGENCY: 1-(519)-352-1234 &gt;&gt; CELL: 1-(519)-360-6675
+</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9" t="str">
+        <v>DENNIS DODGE, JENNY CARR</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2022-10-03</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Phone No &gt;&gt; HOME: 1-(519)-355-5235, 24HR EMERGENCY: 1-(519)-352-1234 &gt;&gt; HOME: 1-(519)-355-5235
+</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10" t="str">
+        <v>WILHELMINA LANDSCHOOT</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2022-10-02</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Contacted &gt;&gt; YES &gt;&gt; NO
+</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11">
+        <v>34</v>
+      </c>
+      <c r="B11" t="str">
+        <v>DAVID ALEXANDER BAUTEs</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D11" t="str">
+        <v>2022-10-07</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Name &gt;&gt; DAVID ALEXANDER BAUTEs &gt;&gt; DAVID ALEXANDER BAUTE
+</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12">
+        <v>35</v>
+      </c>
+      <c r="B12" t="str">
+        <v>RENEE MARIE EILEEN ROELS name</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D12" t="str">
+        <v>2022-10-08</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Name &gt;&gt; RENEE MARIE EILEEN ROELS name &gt;&gt; RENEE MARIE EILEEN ROELS
+</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ISABEL DE JONG, JACOBUS DE JONG</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2022-10-15</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Contacted &gt;&gt;  &gt;&gt; YES
+</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14">
+        <v>37</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ISABEL DE JONG, JACOBUS DE JONG</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Vijay</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2022-10-15</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Contacted &gt;&gt; YES &gt;&gt; NO
 </v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
   </ignoredErrors>
 </worksheet>
 </file>